--- a/datos/data/obs_2022.xlsx
+++ b/datos/data/obs_2022.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcquiroz/Documents/consulting/2024/EDF/edf-mexico/analisis/assessment/datos/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcquiroz/Documents/consulting/2024/EDF/edf-mexico/analisis/hake-assessment/datos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350AA68-2654-924C-9481-C56CCC5A8626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87475EB-B26F-2F4B-8008-B607D62567D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2020" windowWidth="32280" windowHeight="23000" activeTab="1" xr2:uid="{050ABF08-2538-4173-AA6A-D5B73477E9C7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{050ABF08-2538-4173-AA6A-D5B73477E9C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Capturas" sheetId="1" r:id="rId1"/>
     <sheet name="Tallas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Capturas!$A$1:$G$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tallas!$A$1:$F$1087</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="117">
   <si>
     <t>AM</t>
   </si>
@@ -427,10 +428,13 @@
     <t>obs</t>
   </si>
   <si>
-    <t>captura</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>track</t>
+  </si>
+  <si>
+    <t>tipo</t>
   </si>
 </sst>
 </file>
@@ -493,28 +497,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24018BBC-CF4D-4367-9784-0A3C011FA98C}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -851,16 +856,16 @@
         <v>113</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>107</v>
@@ -1060,6 +1065,7 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -3088,7 +3094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027D477F-DDBD-4679-81AF-260D66943C71}">
   <dimension ref="A1:G1087"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -5445,7 +5451,7 @@
         <v>105</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -15723,7 +15729,7 @@
         <v>106</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
@@ -15746,7 +15752,7 @@
         <v>106</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
@@ -15907,7 +15913,7 @@
         <v>106</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -15930,7 +15936,7 @@
         <v>106</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -15953,7 +15959,7 @@
         <v>106</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -15976,7 +15982,7 @@
         <v>106</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -16229,7 +16235,7 @@
         <v>106</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -16252,7 +16258,7 @@
         <v>106</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -16275,7 +16281,7 @@
         <v>106</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -16298,7 +16304,7 @@
         <v>106</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
@@ -16321,7 +16327,7 @@
         <v>106</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -16344,7 +16350,7 @@
         <v>106</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -16367,7 +16373,7 @@
         <v>106</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -16390,7 +16396,7 @@
         <v>106</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -16413,7 +16419,7 @@
         <v>106</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
@@ -16436,7 +16442,7 @@
         <v>106</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -16459,7 +16465,7 @@
         <v>105</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -16482,7 +16488,7 @@
         <v>105</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -16505,7 +16511,7 @@
         <v>105</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -16528,7 +16534,7 @@
         <v>105</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -16551,7 +16557,7 @@
         <v>105</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -16574,7 +16580,7 @@
         <v>105</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -16597,7 +16603,7 @@
         <v>106</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -16620,7 +16626,7 @@
         <v>106</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -16643,7 +16649,7 @@
         <v>106</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
@@ -16666,7 +16672,7 @@
         <v>106</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
@@ -16689,7 +16695,7 @@
         <v>106</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
@@ -16712,7 +16718,7 @@
         <v>106</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
@@ -16735,7 +16741,7 @@
         <v>105</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
@@ -16758,7 +16764,7 @@
         <v>105</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
@@ -16781,7 +16787,7 @@
         <v>106</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
@@ -16804,7 +16810,7 @@
         <v>106</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
@@ -16827,7 +16833,7 @@
         <v>106</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
@@ -16850,7 +16856,7 @@
         <v>106</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
@@ -16873,7 +16879,7 @@
         <v>106</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
@@ -16896,7 +16902,7 @@
         <v>106</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
@@ -16919,7 +16925,7 @@
         <v>105</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
@@ -16942,7 +16948,7 @@
         <v>105</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
@@ -16965,7 +16971,7 @@
         <v>106</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
@@ -16988,7 +16994,7 @@
         <v>106</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
@@ -17011,7 +17017,7 @@
         <v>105</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
@@ -17034,7 +17040,7 @@
         <v>105</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -17057,7 +17063,7 @@
         <v>105</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
@@ -17080,7 +17086,7 @@
         <v>105</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -17103,7 +17109,7 @@
         <v>105</v>
       </c>
       <c r="G612" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
@@ -17126,7 +17132,7 @@
         <v>105</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
@@ -17149,7 +17155,7 @@
         <v>105</v>
       </c>
       <c r="G614" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -17172,7 +17178,7 @@
         <v>105</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
@@ -17241,7 +17247,7 @@
         <v>106</v>
       </c>
       <c r="G618" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
@@ -17264,7 +17270,7 @@
         <v>106</v>
       </c>
       <c r="G619" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
@@ -17287,7 +17293,7 @@
         <v>106</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
@@ -17310,7 +17316,7 @@
         <v>106</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -17333,7 +17339,7 @@
         <v>106</v>
       </c>
       <c r="G622" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
@@ -17356,7 +17362,7 @@
         <v>106</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
@@ -17379,7 +17385,7 @@
         <v>105</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
@@ -17402,7 +17408,7 @@
         <v>105</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
@@ -17425,7 +17431,7 @@
         <v>106</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
@@ -17448,7 +17454,7 @@
         <v>106</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
@@ -17471,7 +17477,7 @@
         <v>106</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
@@ -17494,7 +17500,7 @@
         <v>106</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
@@ -17517,7 +17523,7 @@
         <v>105</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
@@ -17540,7 +17546,7 @@
         <v>105</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
@@ -17563,7 +17569,7 @@
         <v>105</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
@@ -17586,7 +17592,7 @@
         <v>106</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
@@ -17609,7 +17615,7 @@
         <v>105</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
@@ -17632,7 +17638,7 @@
         <v>106</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
@@ -17655,7 +17661,7 @@
         <v>105</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
@@ -17678,7 +17684,7 @@
         <v>105</v>
       </c>
       <c r="G637" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
@@ -17701,7 +17707,7 @@
         <v>105</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
@@ -17724,7 +17730,7 @@
         <v>105</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
@@ -17747,7 +17753,7 @@
         <v>105</v>
       </c>
       <c r="G640" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
@@ -17770,7 +17776,7 @@
         <v>105</v>
       </c>
       <c r="G641" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
@@ -17793,7 +17799,7 @@
         <v>105</v>
       </c>
       <c r="G642" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
@@ -17816,7 +17822,7 @@
         <v>105</v>
       </c>
       <c r="G643" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
@@ -17839,7 +17845,7 @@
         <v>105</v>
       </c>
       <c r="G644" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
@@ -17862,7 +17868,7 @@
         <v>105</v>
       </c>
       <c r="G645" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
@@ -27984,7 +27990,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1087" xr:uid="{027D477F-DDBD-4679-81AF-260D66943C71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>